--- a/RUDN/Importance/Varible_muatal_reg_in_Middle Africa.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Middle Africa.xlsx
@@ -40,12 +40,12 @@
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
@@ -181,15 +181,15 @@
     <t>Population, male</t>
   </si>
   <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
@@ -286,54 +286,54 @@
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Prevalence of obesity, female (% of female population ages 18+)</t>
   </si>
   <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
+    <t>Male population 10-14</t>
   </si>
   <si>
     <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
@@ -358,21 +358,21 @@
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
@@ -394,12 +394,12 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
@@ -409,27 +409,30 @@
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
     <t>Population ages 0-14, male</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
@@ -439,9 +442,6 @@
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -529,18 +529,18 @@
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
@@ -559,57 +559,57 @@
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+    <t>Urban population growth (annual %)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
@@ -622,27 +622,27 @@
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
@@ -664,33 +664,33 @@
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Country_code</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
@@ -703,12 +703,12 @@
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
@@ -802,27 +802,27 @@
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
@@ -841,12 +841,12 @@
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
     <t>Malaria cases reported</t>
   </si>
   <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
     <t>Children out of school, primary, female</t>
   </si>
   <si>
@@ -862,18 +862,18 @@
     <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, female (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
@@ -883,33 +883,33 @@
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
@@ -952,12 +952,12 @@
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Primary education, pupils (% female)</t>
   </si>
   <si>
@@ -1027,16 +1027,16 @@
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>Progression to secondary school, female (%)</t>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.315096806803291</v>
+        <v>2.317844059550544</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.251136835151013</v>
+        <v>2.249566976438297</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.779133257666113</v>
+        <v>1.782796261329117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.459421054404602</v>
+        <v>1.458688453672001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.443096634697692</v>
+        <v>1.441517615526083</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.441517615526083</v>
+        <v>1.440898832499889</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.366013747005946</v>
+        <v>1.368373566673458</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.353428167092805</v>
+        <v>1.352817666482304</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.340348401752862</v>
+        <v>1.337018693738365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.271531590183525</v>
+        <v>1.270432689084624</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1892,7 +1892,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.218187492413625</v>
+        <v>1.218160315561752</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1900,7 +1900,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.218160315561752</v>
+        <v>1.214343675490048</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1908,7 +1908,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.214343675490048</v>
+        <v>1.214141812818495</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1988,7 +1988,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.19646550449514</v>
+        <v>1.196654041448382</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.193236555231118</v>
+        <v>1.192758772144639</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.193195008128569</v>
+        <v>1.187607961396306</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2172,7 +2172,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.128656983948336</v>
+        <v>1.126440909593276</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2180,7 +2180,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.126440909593276</v>
+        <v>1.125163873414942</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2196,7 +2196,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.120768269019338</v>
+        <v>1.124222252748772</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2204,7 +2204,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.119260988171674</v>
+        <v>1.121184099689737</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2212,7 +2212,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.118994693527278</v>
+        <v>1.119260988171674</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2220,7 +2220,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.116926088810721</v>
+        <v>1.109558156155242</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2228,7 +2228,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.109558156155242</v>
+        <v>1.109385582373968</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2236,7 +2236,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.109385582373968</v>
+        <v>1.108772772572195</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2244,7 +2244,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.108772772572195</v>
+        <v>1.108231199012008</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2252,7 +2252,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.108231199012008</v>
+        <v>1.107270914559303</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2260,7 +2260,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.106624502148185</v>
+        <v>1.106574996319911</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2268,7 +2268,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.106574996319911</v>
+        <v>1.106418360783097</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2276,7 +2276,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.106418360783097</v>
+        <v>1.105321893404899</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2284,7 +2284,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.104853233330377</v>
+        <v>1.102784169405651</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2292,7 +2292,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.102784169405651</v>
+        <v>1.102707759756332</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2364,7 +2364,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.089155922958217</v>
+        <v>1.090059501870736</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2380,7 +2380,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.087616737780659</v>
+        <v>1.089155922958217</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2388,7 +2388,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.087305252875977</v>
+        <v>1.087616737780659</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2396,7 +2396,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.085341332551726</v>
+        <v>1.087305252875977</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2404,7 +2404,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.084975966021155</v>
+        <v>1.084100035351991</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2420,7 +2420,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.083128986724874</v>
+        <v>1.083016278919859</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2460,7 +2460,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.071935250444379</v>
+        <v>1.071196948773883</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2468,7 +2468,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.071196948773883</v>
+        <v>1.07056665566919</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2500,7 +2500,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.065556512755208</v>
+        <v>1.065834228796187</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2508,7 +2508,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.064605202198753</v>
+        <v>1.065556512755208</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.06187476151142</v>
+        <v>1.062275761019647</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.061182215556775</v>
+        <v>1.062132674726225</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.060570621917759</v>
+        <v>1.06187476151142</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.060399241015215</v>
+        <v>1.060570621917759</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.059913163894658</v>
+        <v>1.060399241015215</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.057987233557636</v>
+        <v>1.058997412978907</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.013292643557618</v>
+        <v>1.01623612864396</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2812,7 +2812,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.006639488723548</v>
+        <v>1.007751471978388</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2820,7 +2820,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.006575996964599</v>
+        <v>1.003207782900233</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2828,7 +2828,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.003207782900233</v>
+        <v>0.9989798588572392</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2836,7 +2836,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.9951034872043789</v>
+        <v>0.9928397332283356</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2844,7 +2844,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.9905034840084326</v>
+        <v>0.9914404835413753</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2876,7 +2876,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9755771377055837</v>
+        <v>0.9771469964182997</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2900,7 +2900,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9684247946523004</v>
+        <v>0.9693859431065235</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2908,7 +2908,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9673676321215769</v>
+        <v>0.9684247946523004</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2916,7 +2916,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.966757143334867</v>
+        <v>0.9673676321215769</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2924,7 +2924,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9633746855340983</v>
+        <v>0.9633297662611686</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2932,7 +2932,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9633297662611686</v>
+        <v>0.9598206998372554</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2956,7 +2956,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9534976759695082</v>
+        <v>0.9543511887347658</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2972,7 +2972,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9519785613621383</v>
+        <v>0.9500271735494257</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2988,7 +2988,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9475887454685807</v>
+        <v>0.9480956246283119</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2996,7 +2996,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.9473630238957107</v>
+        <v>0.9475887454685807</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3020,7 +3020,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9313226062947497</v>
+        <v>0.9246268070084704</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3028,7 +3028,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9284214424470301</v>
+        <v>0.9236095384466649</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.9147520182573747</v>
+        <v>0.9146351386783604</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.9146351386783604</v>
+        <v>0.9145448492247468</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3084,7 +3084,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.9145448492247468</v>
+        <v>0.9140854707609485</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3092,7 +3092,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9140854707609485</v>
+        <v>0.9135695173524312</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3100,7 +3100,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9135695173524312</v>
+        <v>0.912611791104363</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3108,7 +3108,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.912611791104363</v>
+        <v>0.9105232344526466</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3116,7 +3116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9105232344526466</v>
+        <v>0.9078602107226237</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3124,7 +3124,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9067658403434429</v>
+        <v>0.9074122527545612</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3204,7 +3204,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.8698339332925413</v>
+        <v>0.8689504076678527</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3212,7 +3212,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.8689504076678527</v>
+        <v>0.8675272972287189</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3236,7 +3236,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.8352673190146356</v>
+        <v>0.8346698247978894</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3244,7 +3244,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.8338529850738734</v>
+        <v>0.8294702979766262</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.8101825845247763</v>
+        <v>0.8130431293976166</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3284,7 +3284,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.7966457794294302</v>
+        <v>0.7922918182217173</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3292,7 +3292,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.7922918182217173</v>
+        <v>0.7880679457674664</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3388,7 +3388,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.7295426834450409</v>
+        <v>0.7287647257705312</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3452,7 +3452,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.7000292206140788</v>
+        <v>0.6992846920334159</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3460,7 +3460,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.6988171566978598</v>
+        <v>0.698920255171039</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.6443401976743606</v>
+        <v>0.6453391986733612</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.61312946425981</v>
+        <v>0.6091152657885983</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.6072653485277875</v>
+        <v>0.6082328334238438</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.5750389384302805</v>
+        <v>0.5773889826094962</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.5460035478269287</v>
+        <v>0.543596252034507</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.543596252034507</v>
+        <v>0.5429645676653641</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.5433872219341724</v>
+        <v>0.5423405441639255</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.5198440356653171</v>
+        <v>0.5211572590596865</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.5163013686924625</v>
+        <v>0.5124397615677598</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.5030151437027999</v>
+        <v>0.5088118356140858</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.502352941127205</v>
+        <v>0.5048110019062211</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.458806936064722</v>
+        <v>0.4551439324017179</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.4247747863672899</v>
+        <v>0.4245637465336081</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.4240100442314769</v>
+        <v>0.423578891789355</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.4224179697907016</v>
+        <v>0.4135416117129289</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.4149951226778636</v>
+        <v>0.4089322614778128</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.3717101153008233</v>
+        <v>0.3722487836076729</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.3701662693941123</v>
+        <v>0.3674190166468598</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.3637560129838562</v>
+        <v>0.3665032657311087</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.3564300056578489</v>
+        <v>0.3593788265575382</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.355715822894535</v>
+        <v>0.3527670019948452</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.345965137575647</v>
+        <v>0.3455435967462179</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.3414984348655141</v>
+        <v>0.3406751148907052</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.3354074342969497</v>
+        <v>0.3313750461358043</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.3097084000188557</v>
+        <v>0.3081967305546935</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.3057497621075969</v>
+        <v>0.3075148431355157</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2938783745440467</v>
+        <v>0.2938493323628897</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2938493323628897</v>
+        <v>0.2904159207024346</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2863414170509455</v>
+        <v>0.2842770932981162</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2804675502344141</v>
+        <v>0.2808902045032216</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -3908,7 +3908,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2366036788870851</v>
+        <v>0.2363106385940446</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -3924,7 +3924,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.229019287274457</v>
+        <v>0.2283386197607287</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -3948,7 +3948,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2181380480915491</v>
+        <v>0.2212949898720602</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -3956,7 +3956,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2176319862090561</v>
+        <v>0.2178148418859895</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4052,7 +4052,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1600082003927077</v>
+        <v>0.1568684829672753</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4284,7 +4284,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.02274683897193586</v>
+        <v>0.02365363119548891</v>
       </c>
     </row>
   </sheetData>
